--- a/TCH.BackendApi/Uploads/temp.xlsx
+++ b/TCH.BackendApi/Uploads/temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Báo cáo nhập</t>
   </si>
@@ -44,25 +44,37 @@
     <t>Tổng giá trị</t>
   </si>
   <si>
-    <t>N0.0-18</t>
+    <t>N0.0-11</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>HP Cát Bi Plaza</t>
-  </si>
-  <si>
-    <t>06/01/2022</t>
-  </si>
-  <si>
-    <t>15 Trần Phú, Lương Khánh Thiện, Ngô Quyền, Hải Phòng</t>
+    <t>HP Trần Quang Khải</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>382-384 Lạch Tray, Q. Ngô Quyền, Hải Phòng</t>
   </si>
   <si>
     <t>HÀ NỘI</t>
   </si>
   <si>
-    <t>HP Đỗ Nhuận</t>
+    <t>HP Trần Phú</t>
+  </si>
+  <si>
+    <t>N0.0-27</t>
+  </si>
+  <si>
+    <t>HP Aeon Mall Lê Chân</t>
+  </si>
+  <si>
+    <t>2 - 4 Cầu Đất, Q. Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
+    <t>HP Lạch Tray</t>
   </si>
 </sst>
 </file>
@@ -141,7 +153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -212,6 +224,35 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="0">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>

--- a/TCH.BackendApi/Uploads/temp.xlsx
+++ b/TCH.BackendApi/Uploads/temp.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Báo cáo nhập</t>
+    <t>Báo cáo xuất</t>
   </si>
   <si>
     <t>STT</t>
@@ -42,39 +42,6 @@
   </si>
   <si>
     <t>Tổng giá trị</t>
-  </si>
-  <si>
-    <t>N0.0-11</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>HP Trần Quang Khải</t>
-  </si>
-  <si>
-    <t>01/01/2022</t>
-  </si>
-  <si>
-    <t>382-384 Lạch Tray, Q. Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>HÀ NỘI</t>
-  </si>
-  <si>
-    <t>HP Trần Phú</t>
-  </si>
-  <si>
-    <t>N0.0-27</t>
-  </si>
-  <si>
-    <t>HP Aeon Mall Lê Chân</t>
-  </si>
-  <si>
-    <t>2 - 4 Cầu Đất, Q. Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>HP Lạch Tray</t>
   </si>
 </sst>
 </file>
@@ -153,7 +120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -195,64 +162,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="0">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="0">
-        <v>100000</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>

--- a/TCH.BackendApi/Uploads/temp.xlsx
+++ b/TCH.BackendApi/Uploads/temp.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Báo cáo xuất</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>Báo cáo nhập</t>
   </si>
   <si>
     <t>STT</t>
@@ -42,6 +42,174 @@
   </si>
   <si>
     <t>Tổng giá trị</t>
+  </si>
+  <si>
+    <t>N0.0-15</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>HP Cầu Đất 2</t>
+  </si>
+  <si>
+    <t>04/09/2022</t>
+  </si>
+  <si>
+    <t>Tầng 01 Aeon Mall, Q.Lê Chân, Hải Phòng</t>
+  </si>
+  <si>
+    <t>HÀ NỘI</t>
+  </si>
+  <si>
+    <t>N0.0-25</t>
+  </si>
+  <si>
+    <t>01/27/2022</t>
+  </si>
+  <si>
+    <t>01 Lê Hồng Phong, Q. Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
+    <t>HP Cát Bi Plaza</t>
+  </si>
+  <si>
+    <t>N0.0-24</t>
+  </si>
+  <si>
+    <t>04/03/2022</t>
+  </si>
+  <si>
+    <t>Thửa đất số 172A, 3 Đỗ Nhuận, Đằng Giang, Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
+    <t>HP Lạch Tray</t>
+  </si>
+  <si>
+    <t>N0.0-16</t>
+  </si>
+  <si>
+    <t>04/16/2022</t>
+  </si>
+  <si>
+    <t>HP Trần Quang Khải</t>
+  </si>
+  <si>
+    <t>N0.0-11</t>
+  </si>
+  <si>
+    <t>05/17/2022</t>
+  </si>
+  <si>
+    <t>HP Aeon Mall Lê Chân</t>
+  </si>
+  <si>
+    <t>N0.0-19</t>
+  </si>
+  <si>
+    <t>01/14/2022</t>
+  </si>
+  <si>
+    <t>17 Trần Quang Khải, Q. Hồng Bàng, Hải Phòng</t>
+  </si>
+  <si>
+    <t>N0.0-17</t>
+  </si>
+  <si>
+    <t>01/13/2022</t>
+  </si>
+  <si>
+    <t>HP Trần Phú</t>
+  </si>
+  <si>
+    <t>04/20/2022</t>
+  </si>
+  <si>
+    <t>03/23/2022</t>
+  </si>
+  <si>
+    <t>N0.0-4</t>
+  </si>
+  <si>
+    <t>01/19/2022</t>
+  </si>
+  <si>
+    <t>2 - 4 Cầu Đất, Q. Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
+    <t>HP Đỗ Nhuận</t>
+  </si>
+  <si>
+    <t>N0.0-2</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>02/09/2022</t>
+  </si>
+  <si>
+    <t>N0.0-3</t>
+  </si>
+  <si>
+    <t>04/14/2022</t>
+  </si>
+  <si>
+    <t>N0.0-22</t>
+  </si>
+  <si>
+    <t>03/04/2022</t>
+  </si>
+  <si>
+    <t>N0.0-9</t>
+  </si>
+  <si>
+    <t>05/06/2022</t>
+  </si>
+  <si>
+    <t>N0.0-7</t>
+  </si>
+  <si>
+    <t>03/05/2022</t>
+  </si>
+  <si>
+    <t>01/06/2022</t>
+  </si>
+  <si>
+    <t>04/10/2022</t>
+  </si>
+  <si>
+    <t>382-384 Lạch Tray, Q. Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
+    <t>N0.0-26</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>N0.0-21</t>
+  </si>
+  <si>
+    <t>04/19/2022</t>
+  </si>
+  <si>
+    <t>N0.0-23</t>
+  </si>
+  <si>
+    <t>02/27/2022</t>
+  </si>
+  <si>
+    <t>N0.0-1</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
+  </si>
+  <si>
+    <t>N0.0-12</t>
+  </si>
+  <si>
+    <t>03/21/2022</t>
   </si>
 </sst>
 </file>
@@ -120,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -162,6 +330,731 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0">
+        <v>100749</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="0">
+        <v>100065</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="0">
+        <v>100587</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="0">
+        <v>100737</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="0">
+        <v>100613</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="0">
+        <v>100775</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="0">
+        <v>100113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="0">
+        <v>100523</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="0">
+        <v>100401</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="0">
+        <v>100505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="0">
+        <v>100845</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="0">
+        <v>100791</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="0">
+        <v>100953</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>13</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="0">
+        <v>100835</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>14</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="0">
+        <v>100235</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="0">
+        <v>100053</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>16</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="0">
+        <v>100203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>17</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="0">
+        <v>100329</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>18</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="0">
+        <v>100797</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>19</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="0">
+        <v>100683</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>20</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="0">
+        <v>100029</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>21</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="0">
+        <v>100121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>22</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="0">
+        <v>100599</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>23</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="0">
+        <v>100163</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>24</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="0">
+        <v>100697</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>

--- a/TCH.BackendApi/Uploads/temp.xlsx
+++ b/TCH.BackendApi/Uploads/temp.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>Báo cáo nhập</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+  <si>
+    <t>Báo cáo xuất</t>
   </si>
   <si>
     <t>STT</t>
@@ -44,172 +44,451 @@
     <t>Tổng giá trị</t>
   </si>
   <si>
+    <t>N0.0-24</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>HP Cát Bi Plaza</t>
+  </si>
+  <si>
+    <t>02/11/2022</t>
+  </si>
+  <si>
+    <t>2 - 4 Cầu Đất, Q. Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
+    <t>HÀ NỘI</t>
+  </si>
+  <si>
+    <t>N0.0-26</t>
+  </si>
+  <si>
+    <t>HP Đỗ Nhuận</t>
+  </si>
+  <si>
+    <t>04/08/2022</t>
+  </si>
+  <si>
+    <t>Thửa đất số 172A, 3 Đỗ Nhuận, Đằng Giang, Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
+    <t>HP Cầu Đất 2</t>
+  </si>
+  <si>
+    <t>N0.0-6</t>
+  </si>
+  <si>
+    <t>HP Lạch Tray</t>
+  </si>
+  <si>
+    <t>01/14/2022</t>
+  </si>
+  <si>
+    <t>01 Lê Hồng Phong, Q. Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
+    <t>HP Aeon Mall Lê Chân</t>
+  </si>
+  <si>
+    <t>N0.0-14</t>
+  </si>
+  <si>
+    <t>02/13/2022</t>
+  </si>
+  <si>
+    <t>HP Trần Phú</t>
+  </si>
+  <si>
+    <t>04/21/2022</t>
+  </si>
+  <si>
+    <t>N0.0-23</t>
+  </si>
+  <si>
+    <t>01/13/2022</t>
+  </si>
+  <si>
+    <t>N0.0-5</t>
+  </si>
+  <si>
+    <t>03/21/2022</t>
+  </si>
+  <si>
+    <t>15 Trần Phú, Lương Khánh Thiện, Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
+    <t>N0.0-27</t>
+  </si>
+  <si>
+    <t>01/17/2022</t>
+  </si>
+  <si>
+    <t>17 Trần Quang Khải, Q. Hồng Bàng, Hải Phòng</t>
+  </si>
+  <si>
+    <t>N0.0-22</t>
+  </si>
+  <si>
+    <t>05/15/2022</t>
+  </si>
+  <si>
+    <t>Tầng 01 Aeon Mall, Q.Lê Chân, Hải Phòng</t>
+  </si>
+  <si>
+    <t>N0.0-2</t>
+  </si>
+  <si>
+    <t>01/11/2022</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>382-384 Lạch Tray, Q. Ngô Quyền, Hải Phòng</t>
+  </si>
+  <si>
     <t>N0.0-15</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>HP Cầu Đất 2</t>
-  </si>
-  <si>
-    <t>04/09/2022</t>
-  </si>
-  <si>
-    <t>Tầng 01 Aeon Mall, Q.Lê Chân, Hải Phòng</t>
-  </si>
-  <si>
-    <t>HÀ NỘI</t>
+    <t>04/04/2022</t>
+  </si>
+  <si>
+    <t>04/24/2022</t>
+  </si>
+  <si>
+    <t>N0.0-17</t>
+  </si>
+  <si>
+    <t>02/12/2022</t>
+  </si>
+  <si>
+    <t>N0.0-13</t>
+  </si>
+  <si>
+    <t>03/13/2022</t>
+  </si>
+  <si>
+    <t>03/06/2022</t>
+  </si>
+  <si>
+    <t>01/27/2022</t>
+  </si>
+  <si>
+    <t>N0.0-1</t>
+  </si>
+  <si>
+    <t>03/20/2022</t>
+  </si>
+  <si>
+    <t>04/20/2022</t>
+  </si>
+  <si>
+    <t>N0.0-10</t>
+  </si>
+  <si>
+    <t>03/22/2022</t>
+  </si>
+  <si>
+    <t>N0.0-12</t>
+  </si>
+  <si>
+    <t>06/04/2022</t>
+  </si>
+  <si>
+    <t>N0.0-3</t>
+  </si>
+  <si>
+    <t>02/21/2022</t>
+  </si>
+  <si>
+    <t>HP Trần Quang Khải</t>
+  </si>
+  <si>
+    <t>05/18/2022</t>
+  </si>
+  <si>
+    <t>N0.0-21</t>
+  </si>
+  <si>
+    <t>02/16/2022</t>
+  </si>
+  <si>
+    <t>04/06/2022</t>
+  </si>
+  <si>
+    <t>05/22/2022</t>
+  </si>
+  <si>
+    <t>05/13/2022</t>
+  </si>
+  <si>
+    <t>03/05/2022</t>
+  </si>
+  <si>
+    <t>01/12/2022</t>
+  </si>
+  <si>
+    <t>01/16/2022</t>
+  </si>
+  <si>
+    <t>N0.0-20</t>
+  </si>
+  <si>
+    <t>06/02/2022</t>
+  </si>
+  <si>
+    <t>01/21/2022</t>
+  </si>
+  <si>
+    <t>N0.0-16</t>
+  </si>
+  <si>
+    <t>03/08/2022</t>
+  </si>
+  <si>
+    <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>02/27/2022</t>
+  </si>
+  <si>
+    <t>04/14/2022</t>
+  </si>
+  <si>
+    <t>02/04/2022</t>
+  </si>
+  <si>
+    <t>03/01/2022</t>
+  </si>
+  <si>
+    <t>N0.0-19</t>
   </si>
   <si>
     <t>N0.0-25</t>
   </si>
   <si>
-    <t>01/27/2022</t>
-  </si>
-  <si>
-    <t>01 Lê Hồng Phong, Q. Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>HP Cát Bi Plaza</t>
-  </si>
-  <si>
-    <t>N0.0-24</t>
+    <t>03/24/2022</t>
+  </si>
+  <si>
+    <t>N0.0-18</t>
+  </si>
+  <si>
+    <t>04/18/2022</t>
+  </si>
+  <si>
+    <t>03/15/2022</t>
+  </si>
+  <si>
+    <t>01/06/2022</t>
+  </si>
+  <si>
+    <t>N0.0-8</t>
+  </si>
+  <si>
+    <t>01/18/2022</t>
+  </si>
+  <si>
+    <t>03/25/2022</t>
+  </si>
+  <si>
+    <t>02/14/2022</t>
+  </si>
+  <si>
+    <t>01/08/2022</t>
+  </si>
+  <si>
+    <t>06/09/2022</t>
+  </si>
+  <si>
+    <t>02/20/2022</t>
+  </si>
+  <si>
+    <t>04/05/2022</t>
+  </si>
+  <si>
+    <t>05/09/2022</t>
+  </si>
+  <si>
+    <t>05/20/2022</t>
   </si>
   <si>
     <t>04/03/2022</t>
   </si>
   <si>
-    <t>Thửa đất số 172A, 3 Đỗ Nhuận, Đằng Giang, Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>HP Lạch Tray</t>
-  </si>
-  <si>
-    <t>N0.0-16</t>
+    <t>05/17/2022</t>
   </si>
   <si>
     <t>04/16/2022</t>
   </si>
   <si>
-    <t>HP Trần Quang Khải</t>
-  </si>
-  <si>
     <t>N0.0-11</t>
   </si>
   <si>
-    <t>05/17/2022</t>
-  </si>
-  <si>
-    <t>HP Aeon Mall Lê Chân</t>
-  </si>
-  <si>
-    <t>N0.0-19</t>
-  </si>
-  <si>
-    <t>01/14/2022</t>
-  </si>
-  <si>
-    <t>17 Trần Quang Khải, Q. Hồng Bàng, Hải Phòng</t>
-  </si>
-  <si>
-    <t>N0.0-17</t>
-  </si>
-  <si>
-    <t>01/13/2022</t>
-  </si>
-  <si>
-    <t>HP Trần Phú</t>
-  </si>
-  <si>
-    <t>04/20/2022</t>
+    <t>02/18/2022</t>
   </si>
   <si>
     <t>03/23/2022</t>
   </si>
   <si>
+    <t>05/05/2022</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>N0.0-9</t>
+  </si>
+  <si>
+    <t>01/26/2022</t>
+  </si>
+  <si>
+    <t>04/17/2022</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>04/19/2022</t>
+  </si>
+  <si>
+    <t>02/08/2022</t>
+  </si>
+  <si>
+    <t>02/06/2022</t>
+  </si>
+  <si>
+    <t>01/20/2022</t>
+  </si>
+  <si>
+    <t>03/09/2022</t>
+  </si>
+  <si>
+    <t>N0.0-7</t>
+  </si>
+  <si>
+    <t>02/24/2022</t>
+  </si>
+  <si>
+    <t>01/19/2022</t>
+  </si>
+  <si>
+    <t>05/24/2022</t>
+  </si>
+  <si>
+    <t>05/11/2022</t>
+  </si>
+  <si>
+    <t>01/09/2022</t>
+  </si>
+  <si>
+    <t>03/07/2022</t>
+  </si>
+  <si>
+    <t>03/04/2022</t>
+  </si>
+  <si>
+    <t>01/02/2022</t>
+  </si>
+  <si>
+    <t>01/25/2022</t>
+  </si>
+  <si>
+    <t>06/08/2022</t>
+  </si>
+  <si>
+    <t>04/07/2022</t>
+  </si>
+  <si>
+    <t>02/23/2022</t>
+  </si>
+  <si>
+    <t>05/16/2022</t>
+  </si>
+  <si>
+    <t>02/25/2022</t>
+  </si>
+  <si>
+    <t>05/21/2022</t>
+  </si>
+  <si>
+    <t>02/10/2022</t>
+  </si>
+  <si>
+    <t>02/09/2022</t>
+  </si>
+  <si>
+    <t>04/26/2022</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>02/15/2022</t>
+  </si>
+  <si>
+    <t>05/12/2022</t>
+  </si>
+  <si>
+    <t>01/24/2022</t>
+  </si>
+  <si>
     <t>N0.0-4</t>
   </si>
   <si>
-    <t>01/19/2022</t>
-  </si>
-  <si>
-    <t>2 - 4 Cầu Đất, Q. Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>HP Đỗ Nhuận</t>
-  </si>
-  <si>
-    <t>N0.0-2</t>
-  </si>
-  <si>
-    <t>06/06/2022</t>
-  </si>
-  <si>
-    <t>02/09/2022</t>
-  </si>
-  <si>
-    <t>N0.0-3</t>
-  </si>
-  <si>
-    <t>04/14/2022</t>
-  </si>
-  <si>
-    <t>N0.0-22</t>
-  </si>
-  <si>
-    <t>03/04/2022</t>
-  </si>
-  <si>
-    <t>N0.0-9</t>
-  </si>
-  <si>
-    <t>05/06/2022</t>
-  </si>
-  <si>
-    <t>N0.0-7</t>
-  </si>
-  <si>
-    <t>03/05/2022</t>
-  </si>
-  <si>
-    <t>01/06/2022</t>
+    <t>03/12/2022</t>
+  </si>
+  <si>
+    <t>06/10/2022</t>
+  </si>
+  <si>
+    <t>04/11/2022</t>
+  </si>
+  <si>
+    <t>03/17/2022</t>
+  </si>
+  <si>
+    <t>05/14/2022</t>
+  </si>
+  <si>
+    <t>05/26/2022</t>
+  </si>
+  <si>
+    <t>03/16/2022</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>06/12/2022</t>
+  </si>
+  <si>
+    <t>03/02/2022</t>
+  </si>
+  <si>
+    <t>05/27/2022</t>
   </si>
   <si>
     <t>04/10/2022</t>
   </si>
   <si>
-    <t>382-384 Lạch Tray, Q. Ngô Quyền, Hải Phòng</t>
-  </si>
-  <si>
-    <t>N0.0-26</t>
-  </si>
-  <si>
-    <t>06/03/2022</t>
-  </si>
-  <si>
-    <t>N0.0-21</t>
-  </si>
-  <si>
-    <t>04/19/2022</t>
-  </si>
-  <si>
-    <t>N0.0-23</t>
-  </si>
-  <si>
-    <t>02/27/2022</t>
-  </si>
-  <si>
-    <t>N0.0-1</t>
-  </si>
-  <si>
-    <t>06/01/2022</t>
-  </si>
-  <si>
-    <t>N0.0-12</t>
-  </si>
-  <si>
-    <t>03/21/2022</t>
+    <t>03/03/2022</t>
+  </si>
+  <si>
+    <t>02/07/2022</t>
+  </si>
+  <si>
+    <t>05/25/2022</t>
+  </si>
+  <si>
+    <t>04/22/2022</t>
+  </si>
+  <si>
+    <t>03/19/2022</t>
+  </si>
+  <si>
+    <t>04/15/2022</t>
   </si>
 </sst>
 </file>
@@ -288,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -356,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="0">
-        <v>100749</v>
+        <v>100792</v>
       </c>
     </row>
     <row r="6">
@@ -370,22 +649,22 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="0">
-        <v>100065</v>
+        <v>100369</v>
       </c>
     </row>
     <row r="7">
@@ -393,28 +672,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" s="0">
-        <v>100587</v>
+        <v>100105</v>
       </c>
     </row>
     <row r="8">
@@ -422,28 +701,28 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="0">
-        <v>100737</v>
+        <v>100051</v>
       </c>
     </row>
     <row r="9">
@@ -451,16 +730,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>14</v>
@@ -469,10 +748,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I9" s="0">
-        <v>100613</v>
+        <v>100861</v>
       </c>
     </row>
     <row r="10">
@@ -486,22 +765,22 @@
         <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="0">
-        <v>100775</v>
+        <v>100465</v>
       </c>
     </row>
     <row r="11">
@@ -509,28 +788,28 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="G11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I11" s="0">
-        <v>100113</v>
+        <v>100108</v>
       </c>
     </row>
     <row r="12">
@@ -538,28 +817,28 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I12" s="0">
-        <v>100523</v>
+        <v>100534</v>
       </c>
     </row>
     <row r="13">
@@ -567,28 +846,28 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I13" s="0">
-        <v>100401</v>
+        <v>100333</v>
       </c>
     </row>
     <row r="14">
@@ -596,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>11</v>
@@ -605,19 +884,19 @@
         <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I14" s="0">
-        <v>100505</v>
+        <v>100768</v>
       </c>
     </row>
     <row r="15">
@@ -625,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>11</v>
@@ -637,16 +916,16 @@
         <v>43</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I15" s="0">
-        <v>100845</v>
+        <v>100504</v>
       </c>
     </row>
     <row r="16">
@@ -654,20 +933,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="G16" s="0" t="s">
         <v>15</v>
       </c>
@@ -675,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="0">
-        <v>100791</v>
+        <v>100750</v>
       </c>
     </row>
     <row r="17">
@@ -692,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>14</v>
@@ -701,10 +980,10 @@
         <v>15</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I17" s="0">
-        <v>100953</v>
+        <v>100669</v>
       </c>
     </row>
     <row r="18">
@@ -712,28 +991,28 @@
         <v>13</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I18" s="0">
-        <v>100835</v>
+        <v>100765</v>
       </c>
     </row>
     <row r="19">
@@ -741,28 +1020,28 @@
         <v>14</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I19" s="0">
-        <v>100235</v>
+        <v>100549</v>
       </c>
     </row>
     <row r="20">
@@ -770,28 +1049,28 @@
         <v>15</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I20" s="0">
-        <v>100053</v>
+        <v>100537</v>
       </c>
     </row>
     <row r="21">
@@ -799,13 +1078,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>53</v>
@@ -817,10 +1096,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I21" s="0">
-        <v>100203</v>
+        <v>100273</v>
       </c>
     </row>
     <row r="22">
@@ -828,28 +1107,28 @@
         <v>17</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I22" s="0">
-        <v>100329</v>
+        <v>100150</v>
       </c>
     </row>
     <row r="23">
@@ -857,28 +1136,28 @@
         <v>18</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I23" s="0">
-        <v>100797</v>
+        <v>100585</v>
       </c>
     </row>
     <row r="24">
@@ -886,28 +1165,28 @@
         <v>19</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I24" s="0">
-        <v>100683</v>
+        <v>100846</v>
       </c>
     </row>
     <row r="25">
@@ -915,28 +1194,28 @@
         <v>20</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I25" s="0">
-        <v>100029</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="26">
@@ -944,7 +1223,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>11</v>
@@ -953,19 +1232,19 @@
         <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I26" s="0">
-        <v>100121</v>
+        <v>100084</v>
       </c>
     </row>
     <row r="27">
@@ -973,28 +1252,28 @@
         <v>22</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I27" s="0">
-        <v>100599</v>
+        <v>100342</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>11</v>
@@ -1011,19 +1290,19 @@
         <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="I28" s="0">
-        <v>100163</v>
+        <v>100789</v>
       </c>
     </row>
     <row r="29">
@@ -1031,28 +1310,4494 @@
         <v>24</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="F29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="0">
+        <v>100480</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>25</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="C30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="0">
+        <v>100474</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>26</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="0">
+        <v>100213</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>27</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="0">
+        <v>100540</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>28</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="0">
+        <v>100516</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>29</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="0">
+        <v>100921</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>30</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="0">
+        <v>100348</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>31</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="0">
+        <v>100042</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>32</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="0">
+        <v>100882</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>33</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="0">
+        <v>100120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>34</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="0">
+        <v>100030</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>35</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="0">
+        <v>100459</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>36</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="0">
+        <v>100216</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>37</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="0">
+        <v>100183</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>38</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="0">
+        <v>100957</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>39</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="0">
+        <v>100924</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>40</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="0">
+        <v>100363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>41</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="0">
+        <v>100621</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>42</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="0">
+        <v>100429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>43</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="0">
+        <v>100969</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>44</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="0">
+        <v>100513</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>45</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="0">
+        <v>100186</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>46</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="0">
+        <v>100456</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>47</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="0">
+        <v>100690</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>48</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="0">
+        <v>100735</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>49</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" s="0">
+        <v>100411</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>50</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="0">
+        <v>100729</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>51</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="0">
+        <v>100909</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>52</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="0">
+        <v>100111</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>53</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="0">
+        <v>100408</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>54</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="0">
+        <v>100933</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
         <v>55</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="0" t="s">
+      <c r="B60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="0">
+        <v>100699</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>56</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="0">
+        <v>100066</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>57</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="0">
+        <v>100123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>58</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="0">
+        <v>100102</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>59</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="0">
+        <v>100840</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>60</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="0">
+        <v>100939</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>61</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="0">
+        <v>100930</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>62</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="0">
+        <v>100138</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>63</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68" s="0">
+        <v>100786</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>64</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="0">
+        <v>100630</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>65</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" s="0">
+        <v>100612</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>66</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="0">
+        <v>100618</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>67</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="0">
+        <v>100645</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>68</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="0">
+        <v>100099</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>69</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="0">
+        <v>100318</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>70</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I75" s="0">
+        <v>100600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>71</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="0">
+        <v>100492</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>72</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I77" s="0">
+        <v>100813</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>73</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="0">
+        <v>100279</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>74</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="0">
+        <v>100654</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>75</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="0">
+        <v>100591</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>76</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I81" s="0">
+        <v>100162</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>77</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="0">
+        <v>100825</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>78</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I83" s="0">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>79</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" s="0">
+        <v>100597</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>80</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="0">
+        <v>100555</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>81</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="0">
+        <v>100870</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>82</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I87" s="0">
+        <v>100072</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>83</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="0">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>84</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="0">
+        <v>100666</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>85</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" s="0">
+        <v>100462</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>86</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="0">
+        <v>100441</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>87</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="0">
+        <v>100276</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>88</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I93" s="0">
+        <v>100693</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>89</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="0">
+        <v>100453</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>90</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" s="0">
+        <v>100303</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>91</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="0">
+        <v>100357</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>92</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="0">
+        <v>100201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>93</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" s="0">
+        <v>100195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>94</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" s="0">
+        <v>100753</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>95</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="0">
+        <v>100486</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>96</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="0">
+        <v>100843</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>97</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="0">
+        <v>100927</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>98</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="0">
+        <v>100759</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>99</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I104" s="0">
+        <v>100588</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>100</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="0">
+        <v>100444</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>101</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="0">
+        <v>100828</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>102</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" s="0">
+        <v>100192</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>103</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" s="0">
+        <v>100894</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>104</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="0">
+        <v>100435</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>105</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" s="0">
+        <v>100468</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>106</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" s="0">
+        <v>100165</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>107</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" s="0">
+        <v>100312</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>108</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="0">
-        <v>100697</v>
+      <c r="C113" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I113" s="0">
+        <v>100168</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>109</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" s="0">
+        <v>100819</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>110</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="0">
+        <v>100180</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>111</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="0">
+        <v>100831</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>112</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="0">
+        <v>100204</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>113</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I118" s="0">
+        <v>100564</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>114</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" s="0">
+        <v>100336</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>115</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" s="0">
+        <v>100543</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>116</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I121" s="0">
+        <v>100993</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>117</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="0">
+        <v>100135</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>118</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I123" s="0">
+        <v>100897</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>119</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I124" s="0">
+        <v>100573</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>120</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="0">
+        <v>100978</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>121</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="0">
+        <v>100744</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>122</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="0">
+        <v>100903</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>123</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" s="0">
+        <v>100837</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>124</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" s="0">
+        <v>100450</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>125</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="0">
+        <v>100207</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>126</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I131" s="0">
+        <v>100552</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>127</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="0">
+        <v>100594</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>128</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="0">
+        <v>100678</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>129</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I134" s="0">
+        <v>100942</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>130</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="0">
+        <v>100531</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>131</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="0">
+        <v>100426</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>132</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" s="0">
+        <v>100876</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>133</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="0">
+        <v>100657</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>134</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I139" s="0">
+        <v>100633</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>135</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="0">
+        <v>100225</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>136</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I141" s="0">
+        <v>100378</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>137</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="0">
+        <v>100528</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>138</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I143" s="0">
+        <v>100057</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>139</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I144" s="0">
+        <v>100177</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>140</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I145" s="0">
+        <v>100663</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>141</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="0">
+        <v>100339</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>142</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="0">
+        <v>100672</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>143</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="0">
+        <v>100324</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>144</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I149" s="0">
+        <v>100567</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>145</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" s="0">
+        <v>100732</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>146</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I151" s="0">
+        <v>100906</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>147</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" s="0">
+        <v>100087</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>148</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I153" s="0">
+        <v>100987</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>149</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I154" s="0">
+        <v>100954</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>150</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" s="0">
+        <v>100756</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>151</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I156" s="0">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>152</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I157" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>153</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" s="0">
+        <v>100912</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>154</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" s="0">
+        <v>100189</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>155</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I160" s="0">
+        <v>100888</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>156</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="0">
+        <v>100198</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>157</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162" s="0">
+        <v>100345</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>158</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I163" s="0">
+        <v>100726</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>159</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G164" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I164" s="0">
+        <v>100855</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>160</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" s="0">
+        <v>100012</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>161</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G166" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I166" s="0">
+        <v>100702</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>162</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G167" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167" s="0">
+        <v>100510</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>163</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G168" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I168" s="0">
+        <v>100126</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>164</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G169" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" s="0">
+        <v>100777</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>165</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G170" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" s="0">
+        <v>100222</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>166</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I171" s="0">
+        <v>100003</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>167</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G172" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I172" s="0">
+        <v>100018</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>168</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" s="0">
+        <v>100375</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>169</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I174" s="0">
+        <v>100243</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>170</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H175" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" s="0">
+        <v>100330</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>171</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I176" s="0">
+        <v>100144</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>172</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G177" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I177" s="0">
+        <v>100153</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>173</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" s="0">
+        <v>100696</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>174</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I179" s="0">
+        <v>100447</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>175</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I180" s="0">
+        <v>100246</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>176</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G181" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I181" s="0">
+        <v>100381</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>177</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" s="0">
+        <v>100405</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>178</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I183" s="0">
+        <v>100171</v>
       </c>
     </row>
   </sheetData>
